--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560349/JX560349_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560349/JX560349_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89312051151</v>
+        <v>45441.8333875743</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1188_1189insc']</t>
+          <t>['1242_1366del', '1310_1325del', '1232_1275insttacgctttgtgatatggtcgcataattctacaagtctaagat', '1169_1184inscgtctcgcaaagacc', '1174_1206del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89312053467</v>
+        <v>45441.83338760324</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['243_246instag']</t>
+          <t>['221_332insatagtcccgccgtaagcggcagtgcaatttgtgcagatatcttcggccgaagtttcatataccgggtggatgcaagatcatctatgatgggccggagcaagctaggcagac', '228_299insggcgtgtcggttcctcgacgggctccgacgaacgttctgacttgatggacctaaacacgaactcgtgagcg', '235_248insgccgcgccggcag', '243_289insgggatgtcgtaaggctattgcggcaacatagggagcgtgaaccaaa', '153_163del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.8931205578</v>
+        <v>45441.83338762642</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3396_3397insc']</t>
+          <t>['3353_3460instcaattgtttttttcgtaatgatagacttgggtgcgtccaggcctgaaatgggcttgacggacttgctagccgccacttccttacgacctaatagccagatgttcag', '3370_3446insagcagtaaactaattgggctcatagttactgcggagtcgagacaaacagaatatagcgggaggggagttggaacag', '3442_3453del', '3345_3441del', '3413_3508insctactatccaacgcgtagtgtttcagtgatctctgcttagagtctcattgtttaaaactcatatttgaatttagcgtgtcttgccgcaccccatg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89312058675</v>
+        <v>45441.83338764955</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1242g&gt;c']</t>
+          <t>['1342_1473del', '1347_1415del', '1139_1204del', '1176_1231del', '1157_1224insccggagaaggtacatgcaatgaacgagtgcgtgcagtgtgtaacagacatccttggtatgctatgaa']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['188a&gt;g']</t>
+          <t>['250_330insgagcatagttaatcgcgctagaagcctggtggctgtacctcctctcgctggtggagtccaaaatcaacgcagtcgatccc', '214_230del', '248_365del', '239_366instttagtggttttatgagtaagggtattggaatggaaccctagggagtctgagaaaagttgctattagcacggcttttcgagtcgaggcgatgagctctttgttagggtgcccgaagcggttgcacgc', '208_335insgatgcggcctggattaatcccatggatcaaacggcttgatgttttgtcgggtgagtttcgcctactctgttagtcaagcccgcgtctatactagattcggactgctgtaagagacctgttcgctctg']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89312060989</v>
+        <v>45441.83338766694</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1207_1210inscag']</t>
+          <t>['1147_1185del', '1126_1183del', '1307_1355del', '1117_1223del', '1245_1308del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3383_3385insag']</t>
+          <t>['3436_3535del', '3404_3425del', '3349_3414instgatgcgaccacgtatgacgtgtctcattaagggcaaatagtgtgcacgtctaacatagaccacg', '3406_3425del', '3400_3449inscgggagcgccgtgtaggtcgaagcactcatagagacccgttgggtagca']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89312063303</v>
+        <v>45441.83338769013</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['152_154del']</t>
+          <t>['174_192del', '171_188instatccagtggattgcga', '226_338del', '227_333del', '208_239del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3356_3359del']</t>
+          <t>['3350_3364del', '3359_3435insgagctggatggcagcgagtaaagacagtaaactagtcggttttcttgcaaaacagtatcgcatttgacacatatgc', '3385_3427del', '3355_3395inscaaggaccctgcagacacccttcggcacctctactaactc', '3438_3488insctacgcaactgagggagccgagccccaggtatggcgcggagttcacgtgg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89312065624</v>
+        <v>45441.83338770981</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1328t&gt;c']</t>
+          <t>['1208_1221del', '1194_1252del', '1199_1305insgatcaatttcagctcaccttacgacaggatcccggtttacggcaggagaaggcggcgttggccaagtaggatggaccatagtgtgtgtaccaagtcatacatgggt', '1212_1267insgcaatattacacgagaggacaacgactgattctgtggggcgtctgccatctcacc', '1147_1254del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['157_159del']</t>
+          <t>['188_260del', '238_249instcagacgcgac', '252_321del', '245_263instgtatagatatacagaag', '177_296insaagaaactgaaagtctggccgcgcctggtcatttgatgcttattttttatagccggaccttggggttcgcgcccactgagcagcggtagaacgcagcctcagtggataggcctgtaggt']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3364t&gt;c']</t>
+          <t>['3422_3433del', '3345_3459insagaaagatgtagcccgtcagtaactgcatattctccggaacgtggcaatcgtctttcccgtcccagagcgtcgtctacctcccgcctcgccgaattatggagaggaggacagcc', '3417_3519del', '3367_3498insatccagtggggcattaagtcatcagccgtgtcacttggttctgtcaagttcacctagcggacttcagcacttgggcatcccttgtcgcccagcggcgtttccatggccgggcccgcaacgaccctatctta', '3384_3431del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89312067938</v>
+        <v>45441.83338773297</v>
       </c>
     </row>
   </sheetData>
